--- a/data/pca/factorExposure/factorExposure_2013-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006278689951667392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001865438310758628</v>
+      </c>
+      <c r="C2">
+        <v>-0.03270484354384689</v>
+      </c>
+      <c r="D2">
+        <v>-0.005182356423391959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001637566712600986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006214316671531795</v>
+      </c>
+      <c r="C4">
+        <v>-0.08439322254210192</v>
+      </c>
+      <c r="D4">
+        <v>-0.07912177214032466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003003876133846817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01397621358198522</v>
+      </c>
+      <c r="C6">
+        <v>-0.1132271646960804</v>
+      </c>
+      <c r="D6">
+        <v>-0.03257655433301358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001449223258758104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004930683540021725</v>
+      </c>
+      <c r="C7">
+        <v>-0.05747794609157413</v>
+      </c>
+      <c r="D7">
+        <v>-0.03481023964868197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0003544932618440643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005768019645777333</v>
+      </c>
+      <c r="C8">
+        <v>-0.03816173938534605</v>
+      </c>
+      <c r="D8">
+        <v>-0.0453940716871716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00373916776843005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004366737115392863</v>
+      </c>
+      <c r="C9">
+        <v>-0.07066732049225835</v>
+      </c>
+      <c r="D9">
+        <v>-0.07056732936434487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004622627764631721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005363262459856705</v>
+      </c>
+      <c r="C10">
+        <v>-0.05749107571478122</v>
+      </c>
+      <c r="D10">
+        <v>0.2014373402204647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002637170560388868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00572905943979699</v>
+      </c>
+      <c r="C11">
+        <v>-0.08108283043313576</v>
+      </c>
+      <c r="D11">
+        <v>-0.06046667000396463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005519027718661908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004122361711813622</v>
+      </c>
+      <c r="C12">
+        <v>-0.06467910550823724</v>
+      </c>
+      <c r="D12">
+        <v>-0.04428438715485641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003339364576990859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008667628246951185</v>
+      </c>
+      <c r="C13">
+        <v>-0.06671780598117159</v>
+      </c>
+      <c r="D13">
+        <v>-0.06241278457471838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001247797076984663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001547337607035235</v>
+      </c>
+      <c r="C14">
+        <v>-0.04668413710930598</v>
+      </c>
+      <c r="D14">
+        <v>-0.005992207337638869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009597028958446018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00599592573855588</v>
+      </c>
+      <c r="C15">
+        <v>-0.04257376296155058</v>
+      </c>
+      <c r="D15">
+        <v>-0.02771023973204039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001184355248532126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005095092841446125</v>
+      </c>
+      <c r="C16">
+        <v>-0.0662480506590219</v>
+      </c>
+      <c r="D16">
+        <v>-0.04528496007714118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001765650643518784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008844303695751047</v>
+      </c>
+      <c r="C20">
+        <v>-0.06616130275262226</v>
+      </c>
+      <c r="D20">
+        <v>-0.0428690024905761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005173277703578989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01007093038433211</v>
+      </c>
+      <c r="C21">
+        <v>-0.022696017886901</v>
+      </c>
+      <c r="D21">
+        <v>-0.03497074143878477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01723667531336414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006513383675648669</v>
+      </c>
+      <c r="C22">
+        <v>-0.09666014966314146</v>
+      </c>
+      <c r="D22">
+        <v>-0.09721194455842533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01754728460948241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006332080257032738</v>
+      </c>
+      <c r="C23">
+        <v>-0.09746729616344242</v>
+      </c>
+      <c r="D23">
+        <v>-0.09743854346852518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0017243756372474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005380549336699758</v>
+      </c>
+      <c r="C24">
+        <v>-0.07615490624281285</v>
+      </c>
+      <c r="D24">
+        <v>-0.06024925163718613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00377000220310158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002961299331689917</v>
+      </c>
+      <c r="C25">
+        <v>-0.0781474052748085</v>
+      </c>
+      <c r="D25">
+        <v>-0.06503036949435126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005563875528340993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003586450947510139</v>
+      </c>
+      <c r="C26">
+        <v>-0.0417290580304734</v>
+      </c>
+      <c r="D26">
+        <v>-0.02084091094034164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004083240974123317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001121747744585291</v>
+      </c>
+      <c r="C28">
+        <v>-0.105783917172985</v>
+      </c>
+      <c r="D28">
+        <v>0.317320694055765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001114618373284445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003156583329838174</v>
+      </c>
+      <c r="C29">
+        <v>-0.04952782296294563</v>
+      </c>
+      <c r="D29">
+        <v>-0.004299872292571955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002926413185095471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009267001830833548</v>
+      </c>
+      <c r="C30">
+        <v>-0.1435407704511414</v>
+      </c>
+      <c r="D30">
+        <v>-0.09916054822731009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.000826747968192243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00620015464921013</v>
+      </c>
+      <c r="C31">
+        <v>-0.04539269164277632</v>
+      </c>
+      <c r="D31">
+        <v>-0.03137288527962283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005488427673544501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004079008590838496</v>
+      </c>
+      <c r="C32">
+        <v>-0.04168879550197312</v>
+      </c>
+      <c r="D32">
+        <v>-0.01695149793257716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002572487341753054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008253960940178275</v>
+      </c>
+      <c r="C33">
+        <v>-0.0860969373120099</v>
+      </c>
+      <c r="D33">
+        <v>-0.069825943235186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004266932840822161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003964990347025829</v>
+      </c>
+      <c r="C34">
+        <v>-0.05781082545256176</v>
+      </c>
+      <c r="D34">
+        <v>-0.05103481871298281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002393294859430747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005122936485023591</v>
+      </c>
+      <c r="C35">
+        <v>-0.04031512404962969</v>
+      </c>
+      <c r="D35">
+        <v>-0.0139154254955875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004048342975762426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001232884279921582</v>
+      </c>
+      <c r="C36">
+        <v>-0.02435652378068814</v>
+      </c>
+      <c r="D36">
+        <v>-0.02233521799127288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00273525463854737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009478650224630918</v>
+      </c>
+      <c r="C38">
+        <v>-0.03524355033962387</v>
+      </c>
+      <c r="D38">
+        <v>-0.0155164647559608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0118433383121444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005886954206676333</v>
+      </c>
+      <c r="C39">
+        <v>-0.1173916678193345</v>
+      </c>
+      <c r="D39">
+        <v>-0.07141727902985755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00887329145030317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002500530727209456</v>
+      </c>
+      <c r="C40">
+        <v>-0.08870354037285004</v>
+      </c>
+      <c r="D40">
+        <v>-0.01860233418743285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003679681419841429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00729041537189798</v>
+      </c>
+      <c r="C41">
+        <v>-0.03819532271994862</v>
+      </c>
+      <c r="D41">
+        <v>-0.03407378667802584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003114451759930432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003806871328551462</v>
+      </c>
+      <c r="C43">
+        <v>-0.0525912817970654</v>
+      </c>
+      <c r="D43">
+        <v>-0.02355654032517856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002533367863128556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003291471871330036</v>
+      </c>
+      <c r="C44">
+        <v>-0.110604523831213</v>
+      </c>
+      <c r="D44">
+        <v>-0.0694675520654774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001548035755545498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002298392473444523</v>
+      </c>
+      <c r="C46">
+        <v>-0.03355419819726133</v>
+      </c>
+      <c r="D46">
+        <v>-0.03055746689317943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004464119098034621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002645479725970224</v>
+      </c>
+      <c r="C47">
+        <v>-0.03736558118008552</v>
+      </c>
+      <c r="D47">
+        <v>-0.02213854797724877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003811590467589602</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006500304499775672</v>
+      </c>
+      <c r="C48">
+        <v>-0.02969699300034883</v>
+      </c>
+      <c r="D48">
+        <v>-0.03182258474922429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01275583747019136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01514466865656315</v>
+      </c>
+      <c r="C49">
+        <v>-0.1830164075912636</v>
+      </c>
+      <c r="D49">
+        <v>-0.01062071827027587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003764591858995816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003571836433201951</v>
+      </c>
+      <c r="C50">
+        <v>-0.04412929397055401</v>
+      </c>
+      <c r="D50">
+        <v>-0.03380871957188412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008682124998182199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004422885669602358</v>
+      </c>
+      <c r="C51">
+        <v>-0.02679108076419206</v>
+      </c>
+      <c r="D51">
+        <v>-0.01839503496781044</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000862723465272125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02056504340207131</v>
+      </c>
+      <c r="C53">
+        <v>-0.169015557708336</v>
+      </c>
+      <c r="D53">
+        <v>-0.03526939575255118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001460698942643713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008636947651383217</v>
+      </c>
+      <c r="C54">
+        <v>-0.05538440521326582</v>
+      </c>
+      <c r="D54">
+        <v>-0.04174283702797387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003892807957866137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009412155409547013</v>
+      </c>
+      <c r="C55">
+        <v>-0.1098529078915764</v>
+      </c>
+      <c r="D55">
+        <v>-0.04302656519060278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003368151347181269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01985091328012056</v>
+      </c>
+      <c r="C56">
+        <v>-0.1747438101111252</v>
+      </c>
+      <c r="D56">
+        <v>-0.03394449479141915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006665568172101549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01981885452065972</v>
+      </c>
+      <c r="C58">
+        <v>-0.1123306199136816</v>
+      </c>
+      <c r="D58">
+        <v>-0.0463112372954214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006308839509182491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009335456320493745</v>
+      </c>
+      <c r="C59">
+        <v>-0.1607628263779182</v>
+      </c>
+      <c r="D59">
+        <v>0.3101781066015724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00336835182273593</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02358039224930719</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212167486320682</v>
+      </c>
+      <c r="D60">
+        <v>-0.03235391967045047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0138880347027244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001740352222781367</v>
+      </c>
+      <c r="C61">
+        <v>-0.09584595684951092</v>
+      </c>
+      <c r="D61">
+        <v>-0.05699595323490095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1678322013278511</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444684844265913</v>
+      </c>
+      <c r="C62">
+        <v>-0.09087458381027896</v>
+      </c>
+      <c r="D62">
+        <v>-0.05067544825906314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001107578633741534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006214708745743238</v>
+      </c>
+      <c r="C63">
+        <v>-0.05572562487606585</v>
+      </c>
+      <c r="D63">
+        <v>-0.02249054083851293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001492081485634047</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01525516223931175</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052492591307205</v>
+      </c>
+      <c r="D64">
+        <v>-0.05930678721133629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002494148993439802</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01771059408623772</v>
+      </c>
+      <c r="C65">
+        <v>-0.1216185799027515</v>
+      </c>
+      <c r="D65">
+        <v>-0.01736041222755308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007026548833398141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01309219820246209</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605876028116789</v>
+      </c>
+      <c r="D66">
+        <v>-0.1131685188381305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004002023880489024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01562000919773676</v>
+      </c>
+      <c r="C67">
+        <v>-0.06604939773639477</v>
+      </c>
+      <c r="D67">
+        <v>-0.02471023045145288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005979652290188835</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003966728627829139</v>
+      </c>
+      <c r="C68">
+        <v>-0.08591917051825559</v>
+      </c>
+      <c r="D68">
+        <v>0.2571314286832557</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002368742006291573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006096447114971482</v>
+      </c>
+      <c r="C69">
+        <v>-0.05042065063021946</v>
+      </c>
+      <c r="D69">
+        <v>-0.03774265629358103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003244646739468072</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001869399654235989</v>
+      </c>
+      <c r="C70">
+        <v>-0.002735848356190821</v>
+      </c>
+      <c r="D70">
+        <v>-0.001548550631760383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001387101115710844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005650394556956067</v>
+      </c>
+      <c r="C71">
+        <v>-0.09616230448379068</v>
+      </c>
+      <c r="D71">
+        <v>0.3078531431238615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00430165273946828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01593054726239921</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532248611358846</v>
+      </c>
+      <c r="D72">
+        <v>-0.02001820730190675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01164309061602053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03016238084621418</v>
+      </c>
+      <c r="C73">
+        <v>-0.2761528151028847</v>
+      </c>
+      <c r="D73">
+        <v>-0.05033667742070017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004306277994864422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001810677534085743</v>
+      </c>
+      <c r="C74">
+        <v>-0.1054137704567698</v>
+      </c>
+      <c r="D74">
+        <v>-0.03730940926600664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002437555031330996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01096895035370974</v>
+      </c>
+      <c r="C75">
+        <v>-0.1278672249883945</v>
+      </c>
+      <c r="D75">
+        <v>-0.02513378079404137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009695076525416233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02163864241194017</v>
+      </c>
+      <c r="C76">
+        <v>-0.1502693093699243</v>
+      </c>
+      <c r="D76">
+        <v>-0.0628290726886279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001035124102913115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02373931206020093</v>
+      </c>
+      <c r="C77">
+        <v>-0.1295477032994554</v>
+      </c>
+      <c r="D77">
+        <v>-0.07159112886079698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001052900405901147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01461771960541612</v>
+      </c>
+      <c r="C78">
+        <v>-0.09526292291619833</v>
+      </c>
+      <c r="D78">
+        <v>-0.06900206193682495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02413759104797985</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03748241395003575</v>
+      </c>
+      <c r="C79">
+        <v>-0.1563088026425778</v>
+      </c>
+      <c r="D79">
+        <v>-0.03579176382447258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005212397073714138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01059593762873811</v>
+      </c>
+      <c r="C80">
+        <v>-0.04302592123149961</v>
+      </c>
+      <c r="D80">
+        <v>-0.02876972283341767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001297298029215737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01531485970116878</v>
+      </c>
+      <c r="C81">
+        <v>-0.127192386402887</v>
+      </c>
+      <c r="D81">
+        <v>-0.04214121360920722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005998529763523036</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01973061928702783</v>
+      </c>
+      <c r="C82">
+        <v>-0.1425020860745345</v>
+      </c>
+      <c r="D82">
+        <v>-0.0419745520786102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009350635900560967</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008761783245231</v>
+      </c>
+      <c r="C83">
+        <v>-0.05712643363097475</v>
+      </c>
+      <c r="D83">
+        <v>-0.05404963749367447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01368315801501562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01162041467356504</v>
+      </c>
+      <c r="C84">
+        <v>-0.03632478927862925</v>
+      </c>
+      <c r="D84">
+        <v>0.01034966084782247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01460301238082348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02809673741931904</v>
+      </c>
+      <c r="C85">
+        <v>-0.1263492029588383</v>
+      </c>
+      <c r="D85">
+        <v>-0.04826957718802246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0006075628494974506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005768755942827732</v>
+      </c>
+      <c r="C86">
+        <v>-0.04970642793467105</v>
+      </c>
+      <c r="D86">
+        <v>-0.02112531508118798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003937354363412496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01026467811510129</v>
+      </c>
+      <c r="C87">
+        <v>-0.132521578441687</v>
+      </c>
+      <c r="D87">
+        <v>-0.06750002370525975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01237046468433516</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002816119271150787</v>
+      </c>
+      <c r="C88">
+        <v>-0.0676892392963223</v>
+      </c>
+      <c r="D88">
+        <v>-0.01271914134970755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01441847906647926</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001733841962146699</v>
+      </c>
+      <c r="C89">
+        <v>-0.1448687407873734</v>
+      </c>
+      <c r="D89">
+        <v>0.3426042027992494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002075668071273731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006683126435088357</v>
+      </c>
+      <c r="C90">
+        <v>-0.1202140319370614</v>
+      </c>
+      <c r="D90">
+        <v>0.3269655175187259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001342763881094406</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01043189995197004</v>
+      </c>
+      <c r="C91">
+        <v>-0.1031543724322617</v>
+      </c>
+      <c r="D91">
+        <v>-0.02201129809026872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007848768594367752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006061985726203366</v>
+      </c>
+      <c r="C92">
+        <v>-0.1353314555641962</v>
+      </c>
+      <c r="D92">
+        <v>0.3305215608563995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001151155059104703</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004663111165585483</v>
+      </c>
+      <c r="C93">
+        <v>-0.1045206382380059</v>
+      </c>
+      <c r="D93">
+        <v>0.3092641614384928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004221101753993761</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02255150378331073</v>
+      </c>
+      <c r="C94">
+        <v>-0.1495582483090807</v>
+      </c>
+      <c r="D94">
+        <v>-0.05298040204583038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004768904761788609</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01627377007543728</v>
+      </c>
+      <c r="C95">
+        <v>-0.1265413467501705</v>
+      </c>
+      <c r="D95">
+        <v>-0.05556121526097454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001359389998295761</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03572904759517996</v>
+      </c>
+      <c r="C97">
+        <v>-0.2108771683639638</v>
+      </c>
+      <c r="D97">
+        <v>0.01081200975980628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003504037043955745</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03639022668965781</v>
+      </c>
+      <c r="C98">
+        <v>-0.2453122642525301</v>
+      </c>
+      <c r="D98">
+        <v>-0.04664844048135515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9839953112858342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823580292557581</v>
+      </c>
+      <c r="C99">
+        <v>0.1151160420119312</v>
+      </c>
+      <c r="D99">
+        <v>0.02857395938540713</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001020366017087489</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003193357460364732</v>
+      </c>
+      <c r="C101">
+        <v>-0.04971557440296995</v>
+      </c>
+      <c r="D101">
+        <v>-0.004386370133321056</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
